--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo_Deep-Learning-Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73921937-9EFC-456B-A94C-2649513D67AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC5E7B-82C7-488F-BB96-DD0B7D9F3168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>VGG16</t>
-  </si>
-  <si>
-    <t>(include_top=False, weights="imagenet", input_tensor=None, input_shape=(width, height, channels),  # optional shape tuple, only to be specified if `include_top` is False (otherwise the input shape has to be `(224, 224, 3)` pooling=None, classes=1000)</t>
   </si>
   <si>
     <t>.</t>
@@ -69,6 +66,65 @@
 28709/28709 [==============================] - 27s 949us/step - loss: 1.0534 - accuracy: 0.5941 - val_loss: 1.2348 - val_accuracy: 0.5222
 Epoch 10/10
 28709/28709 [==============================] - 27s 953us/step - loss: 1.0034 - accuracy: 0.6141 - val_loss: 1.1438 - val_accuracy: 0.5581</t>
+  </si>
+  <si>
+    <t>VGG16(include_top=False, weights=None, input_tensor=None, input_shape=(width, height, channels),  # optional shape tuple, only to be specified if `include_top` is False (otherwise the input shape has to be `(224, 224, 3)` pooling=None, classes=7)</t>
+  </si>
+  <si>
+    <t>Train on 28709 samples, validate on 7178 samples
+Epoch 1/10
+28709/28709 [==============================] - 31s 1ms/step - loss: 1.8460 - accuracy: 0.2453 - val_loss: 3.3485 - val_accuracy: 0.1718
+Epoch 2/10
+28709/28709 [==============================] - 27s 950us/step - loss: 1.8171 - accuracy: 0.2510 - val_loss: 1.8139 - val_accuracy: 0.2471
+Epoch 3/10
+28709/28709 [==============================] - 27s 957us/step - loss: 1.8122 - accuracy: 0.2513 - val_loss: 1.8148 - val_accuracy: 0.2471
+Epoch 4/10
+28709/28709 [==============================] - 27s 948us/step - loss: 1.8112 - accuracy: 0.2513 - val_loss: 1.8138 - val_accuracy: 0.2471
+Epoch 5/10
+28709/28709 [==============================] - 27s 958us/step - loss: 1.8277 - accuracy: 0.2471 - val_loss: 1.8144 - val_accuracy: 0.2471
+Epoch 6/10
+28709/28709 [==============================] - 28s 963us/step - loss: 1.8362 - accuracy: 0.2491 - val_loss: 1.8148 - val_accuracy: 0.2471
+Epoch 00006: ReduceLROnPlateau reducing learning rate to 0.00010000000474974513.
+Epoch 7/10
+28709/28709 [==============================] - 27s 949us/step - loss: 1.8100 - accuracy: 0.2513 - val_loss: 1.8127 - val_accuracy: 0.2471
+Epoch 8/10
+28709/28709 [==============================] - 28s 959us/step - loss: 1.8035 - accuracy: 0.2517 - val_loss: 1.7969 - val_accuracy: 0.2467
+Epoch 9/10
+28709/28709 [==============================] - 27s 957us/step - loss: 1.7827 - accuracy: 0.2612 - val_loss: 1.7739 - val_accuracy: 0.2690
+Epoch 10/10
+28709/28709 [==============================] - 28s 962us/step - loss: 1.7319 - accuracy: 0.2882 - val_loss: 1.6819 - val_accuracy: 0.3169</t>
+  </si>
+  <si>
+    <t>(include_top=False, weights="imagenet", input_tensor=None, input_shape=(width, height, channels),  # optional shape tuple, only to be specified if `include_top` is False (otherwise the input shape has to be `(224, 224, 3)` pooling=None, classes=7)</t>
+  </si>
+  <si>
+    <t>VGGFace</t>
+  </si>
+  <si>
+    <t>VGGFace(include_top=False, model="vgg16", weights="vggface", input_tensor=None, input_shape=(width, height, channels),  # optional shape tuple, only to be specified if `include_top` is False (otherwise the input shape has to be `(224, 224, 3)` pooling=None, classes=7)</t>
+  </si>
+  <si>
+    <t>Train on 28709 samples, validate on 7178 samples
+Epoch 1/10
+28709/28709 [==============================] - 31s 1ms/step - loss: 2.0963 - accuracy: 0.2588 - val_loss: 1.7229 - val_accuracy: 0.2913
+Epoch 2/10
+28709/28709 [==============================] - 27s 943us/step - loss: 1.6387 - accuracy: 0.3418 - val_loss: 1.5549 - val_accuracy: 0.3710
+Epoch 3/10
+28709/28709 [==============================] - 27s 946us/step - loss: 1.5023 - accuracy: 0.4073 - val_loss: 1.5141 - val_accuracy: 0.4120
+Epoch 4/10
+28709/28709 [==============================] - 27s 942us/step - loss: 1.4191 - accuracy: 0.4399 - val_loss: 1.3778 - val_accuracy: 0.4563
+Epoch 5/10
+28709/28709 [==============================] - 27s 946us/step - loss: 1.3578 - accuracy: 0.4656 - val_loss: 1.3666 - val_accuracy: 0.4567
+Epoch 6/10
+28709/28709 [==============================] - 27s 945us/step - loss: 1.2956 - accuracy: 0.4916 - val_loss: 1.3081 - val_accuracy: 0.4844
+Epoch 7/10
+28709/28709 [==============================] - 27s 947us/step - loss: 1.2554 - accuracy: 0.5141 - val_loss: 1.3311 - val_accuracy: 0.4737
+Epoch 8/10
+28709/28709 [==============================] - 27s 947us/step - loss: 1.2149 - accuracy: 0.5297 - val_loss: 1.2828 - val_accuracy: 0.5130
+Epoch 9/10
+28709/28709 [==============================] - 28s 959us/step - loss: 1.1776 - accuracy: 0.5449 - val_loss: 1.2515 - val_accuracy: 0.5261
+Epoch 10/10
+28709/28709 [==============================] - 28s 961us/step - loss: 1.1390 - accuracy: 0.5643 - val_loss: 1.2651 - val_accuracy: 0.5216</t>
   </si>
 </sst>
 </file>
@@ -427,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,16 +498,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="237" x14ac:dyDescent="0.25">
@@ -459,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
       </c>
       <c r="E3">
         <v>64</v>
@@ -471,7 +527,47 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="259.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="237" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo_Deep-Learning-Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC5E7B-82C7-488F-BB96-DD0B7D9F3168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33228B1-AC80-4981-AAFA-6410BA421AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train on FER - Test on FER" sheetId="1" r:id="rId1"/>
+    <sheet name="Train on JAFFE - Test on JAFFE" sheetId="2" r:id="rId2"/>
+    <sheet name="Train on SFEW - Test on SFEW" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>VGG16</t>
   </si>
@@ -126,17 +128,51 @@
 Epoch 10/10
 28709/28709 [==============================] - 28s 961us/step - loss: 1.1390 - accuracy: 0.5643 - val_loss: 1.2651 - val_accuracy: 0.5216</t>
   </si>
+  <si>
+    <t>REQUIRES A SPECIFIC SHALLOW ARCHITECTURE AND BATCH SIZE OF 10</t>
+  </si>
+  <si>
+    <t>Train on 1184 samples, validate on 210 samples
+Epoch 1/10
+1184/1184 [==============================] - 21s 18ms/step - loss: 7.1340 - accuracy: 0.1706 - val_loss: 1.9544 - val_accuracy: 0.1905
+Epoch 2/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 2.5090 - accuracy: 0.1546 - val_loss: 3.5163 - val_accuracy: 0.1762
+Epoch 3/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 1.9959 - accuracy: 0.1909 - val_loss: 1.8975 - val_accuracy: 0.1905
+Epoch 4/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 1.9135 - accuracy: 0.1816 - val_loss: 1.9046 - val_accuracy: 0.1905
+Epoch 5/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 1.9113 - accuracy: 0.1816 - val_loss: 1.8970 - val_accuracy: 0.1905
+Epoch 6/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 1.9127 - accuracy: 0.1816 - val_loss: 1.9828 - val_accuracy: 0.1905
+Epoch 7/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 1.9155 - accuracy: 0.1816 - val_loss: 1.8957 - val_accuracy: 0.1905
+Epoch 8/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 1.9117 - accuracy: 0.1706 - val_loss: 1.8811 - val_accuracy: 0.1952
+Epoch 9/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 1.9023 - accuracy: 0.1858 - val_loss: 1.8811 - val_accuracy: 0.1905
+Epoch 10/10
+1184/1184 [==============================] - 15s 13ms/step - loss: 1.8990 - accuracy: 0.1816 - val_loss: 1.8802 - val_accuracy: 0.1905</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,15 +230,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -485,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -574,4 +611,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D6E79C-AB82-4679-845F-556CCE5E84DA}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="121.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50526936-07E8-4C20-AA9C-2A6938EA0B4F}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="121.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="237" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>